--- a/dbSchema.xlsx
+++ b/dbSchema.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\turnn\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\turnn\Desktop\Dropbox\Edu\Current\CITS3403\Project2\Questionaire-Website\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{EB3935E3-A535-44C2-9893-78704D3D4D00}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{54441897-989A-4390-BF06-C624FB4583CA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2055" yWindow="690" windowWidth="21600" windowHeight="12735" xr2:uid="{4A7FAB5F-C61E-4917-9CF4-B723DFDD2535}"/>
   </bookViews>
@@ -1803,7 +1803,7 @@
     </inkml:brush>
   </inkml:definitions>
   <inkml:trace contextRef="#ctx0" brushRef="#br0">0 131 4848,'2'-1'301,"-1"0"1,1 0-1,-1 0 0,1 0 1,-1 0-1,0 0 0,1 0 1,-1 0-1,0-1 0,0 1 1,0 0-1,0-1 0,0 1 1,0-1-1,0 1 0,-1-1 1,1 0-1,0 1 0,-1-1 1,1 0-1,-1 0 0,0 1 1,0-1-1,1 0 0,-1 0 1,0 1-1,-1-1 0,1 0 1,0 0-1,0 1 0,-1-3-301,1-6 548,0-61 4654,0 70-4900,0 1 68,0 0 20,0 0-4,0 0-44,0 0-29,0 0-84,20 7 250,57 16-3,-1 4 0,15 10-476,-44-17 121,141 46 21,-107-43-132,26 10-16,9 8 6,-90-32-2,-13-4-2,-1 0 0,0 0 0,0 1 0,10 8 4,33 19-57,-2 2 0,-2 3 1,18 17 56,-4 18-14,-43-43 13,-2 1-1,-2 2 1,0-1-1,-3 2 1,2 6 1,51 155-11,-60-168 12,24 75-11,5 38 10,-18-59-21,70 267-84,-51-210 92,39 247 3,-54-223 10,-4 169 4,-19-329-4,2 62 20,3 98 0,0 35-14,5 3-1,5-1-4,29 149-10,-32-287-36,29 85 3,18 25 36,-27-88-3,4-2 1,3 0-1,12 11 9,60 86-76,32 30 76,-56-96-12,-49-69-26,181 154-14,-172-160-2,202 139-11,-194-144 60,250 115 2,-241-117-2,266 128 2,-262-126-2,284 139 6,-280-135 14,108 54 3,37 22-14,10-5-4,9-4 0,178 95-1,-393-187 0,59 28-13,336 151-3,-331-154 12,132 50 3,50 13 2,1 2 0,1-3 0,216 74 3,-395-141 12,366 118 10,-365-120-10,361 106 14,-362-109 6,136 37 3,48 9-28,0 1-5,0 4-2,210 59 11,-397-111 26,128 36 0,45 9-32,231 48-5,-401-98 12,352 73 23,-352-76 42,361 59 18,-359-61-92,378 62 6,-376-62 10,377 55 6,-377-57-42,139 21 1,49 6 10,252 42 5,-436-69 6,143 15 4,48 2-10,246 29 6,-434-48 32,157 20 0,59 6-32,2 0-8,4-1 2,-3 0 3,0 1-4,-4-7-1,-3-4 0,253 13 3,-463-34 10,426 10 5,-423-13-10,431 10 8,-431-11-8,156 1 4,49 1-10,252 4 0,-462-4 4,149 2 1,48-3-4,6-4 2,4-5-2,265-9 13,-469 12 32,152-12 4,52-5-40,266-37-2,-467 47 12,165-15 3,55-4-20,-5 2-5,-2 3 0,270-28 2,-482 42 6,428-47 8,-427 44-10,441-69 8,-438 64 12,465-87 9,-460 85-20,462-79 9,-466 81-16,444-67 8,-448 69-8,428-84 8,-431 78-10,421-92 6,-422 90 8,423-110 6,-421 105-18,428-134 8,-430 130-8,416-122 12,-421 125 6,366-123 9,-375 122-22,361-131 17,-366 129 38,315-142 38,-325 141-6,293-136 24,-299 135-102,259-158 12,-266 153-14,89-68 0,21-27-16,-14-3-4,-13-4 0,-18 10-30,43-64 30,146-209-78,-236 290 72,-50 69-8,113-197-4,-65 102-2,26-51 10,82-182-50,-131 250 56,-45 98 4,7-14-5,-3-1 0,-1-1 1,2-18 4,-4 9-8,-5 2 6,-11-27 82,14 64-239,-8 11-807,-12 3-483,-49 7-1398,4-1-8211,103-13 8690</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1305.63">37377 3875 1976,'0'0'0,"8"8"0,11-1 0,9 9-1008</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1305.62">37377 3875 1976,'0'0'0,"8"8"0,11-1 0,9 9-1008</inkml:trace>
   <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1871.29">37457 3812 4216,'25'-30'7320,"-19"20"-6080,-6 9-560,0 1 102,0 0-131,0 0-47,0 0-73,-20 30 831,-30 48 117,-36 39-1479,35-53 310,-9 15 517,-6 16-827,47-69 488,31-48-455,25-29 93,59-69 64,36-28-190,-90 106 64,-23 22-53,58-66 12,5-6-15,-43 50 6,-39 42-3,7-2 45,-6 4-55,0 0 1,0 0-1,0 0 1,0 0 0,0 0-1,0 0 1,-1 0 0,1 1-1,-1-1 1,0 0 0,0 1-1,1-1 1,-1 0 0,-1 2-2,2 61 9,2 28 32,8-14 5,-1-31-8,5 6-30,-11-37-8,27 53 2,-8-31 3,16 32-12,-39-69-35,0-1-1,0 1 0,0 0 0,0 0 0,0-1 1,0 1-1,-1 0 0,1 0 0,-1-1 0,1 1 1,-1 0-1,0-1 0,1 1 0,-1 0 0,0-1 1,0 1-1,0-1 0,0 1 0,0-1 0,-1 0 1,1 0-1,0 1 0,-1-1 0,1 0 0,-1 0 1,1 0-1,-1 0 0,0 0 43,-6 4-658,0 0 1,-1 0-1,1 0 0,-1-1 1,-4 1 657,-40 5-3283,4-2-5483</inkml:trace>
   <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="2229.88">37203 4197 10584,'12'1'929,"9"0"2409,-21-1-3274,1 0 0,-1 0 0,0 0-1,1 0 1,-1 0 0,1 0 0,-1 0-1,1-1 1,-1 1 0,0 0-1,1 0 1,-1 0 0,0-1 0,1 1-1,-1 0 1,0 0 0,1-1 0,-1 1-1,0 0 1,1-1 0,-1 1 0,0 0-1,0-1 1,0 1 0,1 0 0,-1-1-1,0 1 1,0-1 0,0 1-1,0 0 1,0-1 0,1 1 0,-1-1-1,0 1 1,0-1-64,0-1 855,-1 2-599,1 1-223,0-1 0,0 0 0,0 0 0,0 0 0,1 0 0,-1 0 0,0 0 0,0 0 0,0 0 0,0 0 0,0 0 1,0 0-1,0 0 0,0 1 0,0-1 0,0 0 0,1 0 0,-1 0 0,0 0 0,0 0 0,0 0 0,0 0 0,0 1 0,0-1 0,0 0 0,0 0 0,0 0 0,0 0 0,0 0 0,0 0 0,0 0 0,0 1 1,0-1-1,0 0 0,0 0 0,0 0 0,0 0 0,0 0 0,0 0 0,-1 0 0,1 1 0,0-1 0,0 0 0,0 0 0,0 0 0,0 0 0,0 0 0,0 0 0,0 0 0,0 0 0,0 0 0,-1 0 0,1 1 0,0-1 1,0 0-1,0 0 0,0 0 0,0 0 0,0 0 0,0 0 0,-1 0 0,1 0 0,0 0 0,0 0 0,0 0 0,0 0 0,0 0 0,0 0 0,-1 0-33,3 4-67,-1-3 112,0 1 0,0-1 0,0 0 0,0 0 0,0 0 0,0 0 1,1 0-1,-1-1 0,0 1 0,0 0 0,1-1 0,-1 1 0,1 0 0,-1-1 0,0 0 0,1 1 0,0-1-45,3 2 101,9 3 28,0-1-1,0 0 1,0-1 0,0-1 0,1 0 0,-1-1 0,1-1 0,10-1-129,14-1 246,-1-2-1,26-7-245,49-16-340,-82 20 423,18-5-1224,0-1 1,-2-3-1,0-1 0,23-14 1141,-67 29-336,29-23-2635,-3 0-6729</inkml:trace>
 </inkml:ink>
@@ -2371,7 +2371,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{77E1F7D0-8327-474C-925F-FEADB87380CE}">
   <dimension ref="A24:O42"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="84" zoomScaleNormal="320" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="C16" zoomScale="84" zoomScaleNormal="320" workbookViewId="0">
       <selection activeCell="K20" sqref="K20"/>
     </sheetView>
   </sheetViews>

--- a/dbSchema.xlsx
+++ b/dbSchema.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\turnn\Desktop\Dropbox\Edu\Current\CITS3403\Project2\Questionaire-Website\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{54441897-989A-4390-BF06-C624FB4583CA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A5A104DB-8A3B-4AF2-838D-9B0D3975E041}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2055" yWindow="690" windowWidth="21600" windowHeight="12735" xr2:uid="{4A7FAB5F-C61E-4917-9CF4-B723DFDD2535}"/>
+    <workbookView xWindow="3120" yWindow="3120" windowWidth="21600" windowHeight="12735" xr2:uid="{4A7FAB5F-C61E-4917-9CF4-B723DFDD2535}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="48">
   <si>
     <t>User</t>
   </si>
@@ -171,6 +171,12 @@
   </si>
   <si>
     <t>question_choices</t>
+  </si>
+  <si>
+    <t>QuizContent</t>
+  </si>
+  <si>
+    <t>quizContents</t>
   </si>
 </sst>
 </file>
@@ -227,13 +233,15 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1126,8 +1134,8 @@
           </xdr14:nvContentPartPr>
           <xdr14:nvPr macro=""/>
           <xdr14:xfrm>
-            <a:off x="13939069" y="4696882"/>
-            <a:ext cx="1938902" cy="3169440"/>
+            <a:off x="13948055" y="4722556"/>
+            <a:ext cx="1942539" cy="3187625"/>
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
@@ -1803,7 +1811,7 @@
     </inkml:brush>
   </inkml:definitions>
   <inkml:trace contextRef="#ctx0" brushRef="#br0">0 131 4848,'2'-1'301,"-1"0"1,1 0-1,-1 0 0,1 0 1,-1 0-1,0 0 0,1 0 1,-1 0-1,0-1 0,0 1 1,0 0-1,0-1 0,0 1 1,0-1-1,0 1 0,-1-1 1,1 0-1,0 1 0,-1-1 1,1 0-1,-1 0 0,0 1 1,0-1-1,1 0 0,-1 0 1,0 1-1,-1-1 0,1 0 1,0 0-1,0 1 0,-1-3-301,1-6 548,0-61 4654,0 70-4900,0 1 68,0 0 20,0 0-4,0 0-44,0 0-29,0 0-84,20 7 250,57 16-3,-1 4 0,15 10-476,-44-17 121,141 46 21,-107-43-132,26 10-16,9 8 6,-90-32-2,-13-4-2,-1 0 0,0 0 0,0 1 0,10 8 4,33 19-57,-2 2 0,-2 3 1,18 17 56,-4 18-14,-43-43 13,-2 1-1,-2 2 1,0-1-1,-3 2 1,2 6 1,51 155-11,-60-168 12,24 75-11,5 38 10,-18-59-21,70 267-84,-51-210 92,39 247 3,-54-223 10,-4 169 4,-19-329-4,2 62 20,3 98 0,0 35-14,5 3-1,5-1-4,29 149-10,-32-287-36,29 85 3,18 25 36,-27-88-3,4-2 1,3 0-1,12 11 9,60 86-76,32 30 76,-56-96-12,-49-69-26,181 154-14,-172-160-2,202 139-11,-194-144 60,250 115 2,-241-117-2,266 128 2,-262-126-2,284 139 6,-280-135 14,108 54 3,37 22-14,10-5-4,9-4 0,178 95-1,-393-187 0,59 28-13,336 151-3,-331-154 12,132 50 3,50 13 2,1 2 0,1-3 0,216 74 3,-395-141 12,366 118 10,-365-120-10,361 106 14,-362-109 6,136 37 3,48 9-28,0 1-5,0 4-2,210 59 11,-397-111 26,128 36 0,45 9-32,231 48-5,-401-98 12,352 73 23,-352-76 42,361 59 18,-359-61-92,378 62 6,-376-62 10,377 55 6,-377-57-42,139 21 1,49 6 10,252 42 5,-436-69 6,143 15 4,48 2-10,246 29 6,-434-48 32,157 20 0,59 6-32,2 0-8,4-1 2,-3 0 3,0 1-4,-4-7-1,-3-4 0,253 13 3,-463-34 10,426 10 5,-423-13-10,431 10 8,-431-11-8,156 1 4,49 1-10,252 4 0,-462-4 4,149 2 1,48-3-4,6-4 2,4-5-2,265-9 13,-469 12 32,152-12 4,52-5-40,266-37-2,-467 47 12,165-15 3,55-4-20,-5 2-5,-2 3 0,270-28 2,-482 42 6,428-47 8,-427 44-10,441-69 8,-438 64 12,465-87 9,-460 85-20,462-79 9,-466 81-16,444-67 8,-448 69-8,428-84 8,-431 78-10,421-92 6,-422 90 8,423-110 6,-421 105-18,428-134 8,-430 130-8,416-122 12,-421 125 6,366-123 9,-375 122-22,361-131 17,-366 129 38,315-142 38,-325 141-6,293-136 24,-299 135-102,259-158 12,-266 153-14,89-68 0,21-27-16,-14-3-4,-13-4 0,-18 10-30,43-64 30,146-209-78,-236 290 72,-50 69-8,113-197-4,-65 102-2,26-51 10,82-182-50,-131 250 56,-45 98 4,7-14-5,-3-1 0,-1-1 1,2-18 4,-4 9-8,-5 2 6,-11-27 82,14 64-239,-8 11-807,-12 3-483,-49 7-1398,4-1-8211,103-13 8690</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1305.62">37377 3875 1976,'0'0'0,"8"8"0,11-1 0,9 9-1008</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1305.61">37377 3875 1976,'0'0'0,"8"8"0,11-1 0,9 9-1008</inkml:trace>
   <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1871.29">37457 3812 4216,'25'-30'7320,"-19"20"-6080,-6 9-560,0 1 102,0 0-131,0 0-47,0 0-73,-20 30 831,-30 48 117,-36 39-1479,35-53 310,-9 15 517,-6 16-827,47-69 488,31-48-455,25-29 93,59-69 64,36-28-190,-90 106 64,-23 22-53,58-66 12,5-6-15,-43 50 6,-39 42-3,7-2 45,-6 4-55,0 0 1,0 0-1,0 0 1,0 0 0,0 0-1,0 0 1,-1 0 0,1 1-1,-1-1 1,0 0 0,0 1-1,1-1 1,-1 0 0,-1 2-2,2 61 9,2 28 32,8-14 5,-1-31-8,5 6-30,-11-37-8,27 53 2,-8-31 3,16 32-12,-39-69-35,0-1-1,0 1 0,0 0 0,0 0 0,0-1 1,0 1-1,-1 0 0,1 0 0,-1-1 0,1 1 1,-1 0-1,0-1 0,1 1 0,-1 0 0,0-1 1,0 1-1,0-1 0,0 1 0,0-1 0,-1 0 1,1 0-1,0 1 0,-1-1 0,1 0 0,-1 0 1,1 0-1,-1 0 0,0 0 43,-6 4-658,0 0 1,-1 0-1,1 0 0,-1-1 1,-4 1 657,-40 5-3283,4-2-5483</inkml:trace>
   <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="2229.88">37203 4197 10584,'12'1'929,"9"0"2409,-21-1-3274,1 0 0,-1 0 0,0 0-1,1 0 1,-1 0 0,1 0 0,-1 0-1,1-1 1,-1 1 0,0 0-1,1 0 1,-1 0 0,0-1 0,1 1-1,-1 0 1,0 0 0,1-1 0,-1 1-1,0 0 1,1-1 0,-1 1 0,0 0-1,0-1 1,0 1 0,1 0 0,-1-1-1,0 1 1,0-1 0,0 1-1,0 0 1,0-1 0,1 1 0,-1-1-1,0 1 1,0-1-64,0-1 855,-1 2-599,1 1-223,0-1 0,0 0 0,0 0 0,0 0 0,1 0 0,-1 0 0,0 0 0,0 0 0,0 0 0,0 0 0,0 0 1,0 0-1,0 0 0,0 1 0,0-1 0,0 0 0,1 0 0,-1 0 0,0 0 0,0 0 0,0 0 0,0 0 0,0 1 0,0-1 0,0 0 0,0 0 0,0 0 0,0 0 0,0 0 0,0 0 0,0 0 0,0 1 1,0-1-1,0 0 0,0 0 0,0 0 0,0 0 0,0 0 0,0 0 0,-1 0 0,1 1 0,0-1 0,0 0 0,0 0 0,0 0 0,0 0 0,0 0 0,0 0 0,0 0 0,0 0 0,0 0 0,-1 0 0,1 1 0,0-1 1,0 0-1,0 0 0,0 0 0,0 0 0,0 0 0,0 0 0,-1 0 0,1 0 0,0 0 0,0 0 0,0 0 0,0 0 0,0 0 0,0 0 0,-1 0-33,3 4-67,-1-3 112,0 1 0,0-1 0,0 0 0,0 0 0,0 0 0,0 0 1,1 0-1,-1-1 0,0 1 0,0 0 0,1-1 0,-1 1 0,1 0 0,-1-1 0,0 0 0,1 1 0,0-1-45,3 2 101,9 3 28,0-1-1,0 0 1,0-1 0,0-1 0,1 0 0,-1-1 0,1-1 0,10-1-129,14-1 246,-1-2-1,26-7-245,49-16-340,-82 20 423,18-5-1224,0-1 1,-2-3-1,0-1 0,23-14 1141,-67 29-336,29-23-2635,-3 0-6729</inkml:trace>
 </inkml:ink>
@@ -2371,8 +2379,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{77E1F7D0-8327-474C-925F-FEADB87380CE}">
   <dimension ref="A24:O42"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C16" zoomScale="84" zoomScaleNormal="320" workbookViewId="0">
-      <selection activeCell="K20" sqref="K20"/>
+    <sheetView tabSelected="1" topLeftCell="C19" zoomScale="84" zoomScaleNormal="320" workbookViewId="0">
+      <selection activeCell="G35" sqref="G35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="22.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2613,6 +2621,15 @@
       <c r="O31" s="3"/>
     </row>
     <row r="32" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="E32" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="F32" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="G32" s="1" t="s">
+        <v>43</v>
+      </c>
       <c r="I32" s="1" t="s">
         <v>24</v>
       </c>
@@ -2703,6 +2720,11 @@
       <c r="O37" s="3"/>
     </row>
     <row r="38" spans="9:15" x14ac:dyDescent="0.25">
+      <c r="I38" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="J38" s="3"/>
+      <c r="K38" s="3"/>
       <c r="M38" s="1" t="s">
         <v>1</v>
       </c>
@@ -2712,6 +2734,13 @@
       <c r="O38" s="1"/>
     </row>
     <row r="39" spans="9:15" x14ac:dyDescent="0.25">
+      <c r="I39" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="J39" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K39" s="1"/>
       <c r="M39" s="1" t="s">
         <v>37</v>
       </c>
@@ -2723,6 +2752,15 @@
       </c>
     </row>
     <row r="40" spans="9:15" x14ac:dyDescent="0.25">
+      <c r="I40" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="J40" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K40" s="1" t="s">
+        <v>42</v>
+      </c>
       <c r="M40" s="1" t="s">
         <v>29</v>
       </c>
@@ -2734,6 +2772,13 @@
       </c>
     </row>
     <row r="41" spans="9:15" x14ac:dyDescent="0.25">
+      <c r="I41" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="J41" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="K41" s="1"/>
       <c r="M41" s="1" t="s">
         <v>38</v>
       </c>
@@ -2745,6 +2790,13 @@
       </c>
     </row>
     <row r="42" spans="9:15" x14ac:dyDescent="0.25">
+      <c r="I42" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="J42" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="K42" s="1"/>
       <c r="M42" s="1" t="s">
         <v>39</v>
       </c>
@@ -2754,7 +2806,8 @@
       <c r="O42" s="1"/>
     </row>
   </sheetData>
-  <mergeCells count="7">
+  <mergeCells count="8">
+    <mergeCell ref="I38:K38"/>
     <mergeCell ref="M37:O37"/>
     <mergeCell ref="A24:C24"/>
     <mergeCell ref="E24:G24"/>
